--- a/Automation/Workspace/Odysseus_Product/src/main/java/testData/LocalAirBookingData.xlsx
+++ b/Automation/Workspace/Odysseus_Product/src/main/java/testData/LocalAirBookingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -79,21 +79,12 @@
     <t>odysseus</t>
   </si>
   <si>
-    <t>las</t>
-  </si>
-  <si>
-    <t>yyz</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>ajit_nakum@odysseussolutions.com</t>
   </si>
   <si>
-    <t>DestinationPhone_No</t>
-  </si>
-  <si>
     <t>CardNo</t>
   </si>
   <si>
@@ -140,6 +131,30 @@
   </si>
   <si>
     <t>Raya</t>
+  </si>
+  <si>
+    <t>Bank_Name</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>ConfirmEmail</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>DestinationPhone</t>
+  </si>
+  <si>
+    <t>City Bank</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>lhr</t>
   </si>
 </sst>
 </file>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,28 +538,30 @@
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.140625" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,55 +587,67 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
+      <c r="AB1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -629,72 +658,86 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>5421653298</v>
+      </c>
+      <c r="L2">
+        <v>6532988745</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2">
+      <c r="T2">
         <v>8952634785</v>
       </c>
-      <c r="K2">
-        <v>4562358965</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2">
         <v>123</v>
       </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2">
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2">
         <v>10245</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>8952634785</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
